--- a/resultados/resultados_slot200-300.xlsx
+++ b/resultados/resultados_slot200-300.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.696485118079561</v>
+        <v>8.696410230685041</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001520156860351562</v>
+        <v>0.0005359649658203125</v>
       </c>
       <c r="G2" t="n">
-        <v>9.638546679566004e-09</v>
+        <v>6.239360406683624e-06</v>
       </c>
       <c r="H2" t="n">
         <v>229</v>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.696484117205268</v>
+        <v>8.695718516964693</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001313209533691406</v>
+        <v>0.000453948974609375</v>
       </c>
       <c r="G3" t="n">
-        <v>9.535824678877489e-09</v>
+        <v>8.672803778451872e-06</v>
       </c>
       <c r="H3" t="n">
         <v>229</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.696483752324795</v>
+        <v>8.696466958156696</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004480361938476562</v>
+        <v>0.002607583999633789</v>
       </c>
       <c r="G4" t="n">
-        <v>2.654112423021987e-09</v>
+        <v>5.191659145506421e-06</v>
       </c>
       <c r="H4" t="n">
         <v>229</v>
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.696483276939006</v>
+        <v>8.69645712264195</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004292011260986328</v>
+        <v>0.002367734909057617</v>
       </c>
       <c r="G5" t="n">
-        <v>2.961360977040855e-09</v>
+        <v>7.82535334643151e-06</v>
       </c>
       <c r="H5" t="n">
         <v>229</v>
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.696483752324795</v>
+        <v>8.696466958156696</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004812479019165039</v>
+        <v>0.002298355102539062</v>
       </c>
       <c r="G6" t="n">
-        <v>2.654069119587463e-09</v>
+        <v>5.192007486654669e-06</v>
       </c>
       <c r="H6" t="n">
         <v>229</v>
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.696483276939006</v>
+        <v>8.69645712264195</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003810405731201172</v>
+        <v>0.00235295295715332</v>
       </c>
       <c r="G7" t="n">
-        <v>2.961797688098564e-09</v>
+        <v>7.826392633099259e-06</v>
       </c>
       <c r="H7" t="n">
         <v>229</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.696483752324795</v>
+        <v>8.696466958156696</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004285335540771484</v>
+        <v>0.002248048782348633</v>
       </c>
       <c r="G8" t="n">
-        <v>2.654067485495598e-09</v>
+        <v>5.192007487267451e-06</v>
       </c>
       <c r="H8" t="n">
         <v>229</v>
@@ -775,16 +775,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.696485184146665</v>
+        <v>8.69645712264195</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01433420181274414</v>
+        <v>0.005223751068115234</v>
       </c>
       <c r="G9" t="n">
-        <v>8.202205980690072e-09</v>
+        <v>8.387143965593935e-06</v>
       </c>
       <c r="H9" t="n">
         <v>229</v>
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582832763035696</v>
       </c>
       <c r="E10" t="n">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006102323532104492</v>
+        <v>0.00168609619140625</v>
       </c>
       <c r="G10" t="n">
-        <v>9.920464014710836e-09</v>
+        <v>8.705404545941904e-06</v>
       </c>
       <c r="H10" t="n">
         <v>234</v>
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.58309002123202</v>
+        <v>4.572189234610126</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005212783813476562</v>
+        <v>0.0009627342224121094</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971443020616034e-09</v>
+        <v>5.954039078289179e-06</v>
       </c>
       <c r="H11" t="n">
         <v>234</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582745266750616</v>
       </c>
       <c r="E12" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0322716236114502</v>
+        <v>0.008313655853271484</v>
       </c>
       <c r="G12" t="n">
-        <v>9.766457681131936e-09</v>
+        <v>9.932425479283364e-06</v>
       </c>
       <c r="H12" t="n">
         <v>234</v>
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582792867622527</v>
       </c>
       <c r="E13" t="n">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0282740592956543</v>
+        <v>0.007772684097290039</v>
       </c>
       <c r="G13" t="n">
-        <v>9.740366767586504e-09</v>
+        <v>8.714473324793719e-06</v>
       </c>
       <c r="H13" t="n">
         <v>234</v>
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582745266750616</v>
       </c>
       <c r="E14" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02767443656921387</v>
+        <v>0.007317781448364258</v>
       </c>
       <c r="G14" t="n">
-        <v>9.767809590313343e-09</v>
+        <v>9.931700475787275e-06</v>
       </c>
       <c r="H14" t="n">
         <v>234</v>
@@ -1015,16 +1015,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582792867622527</v>
       </c>
       <c r="E15" t="n">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03203630447387695</v>
+        <v>0.006859540939331055</v>
       </c>
       <c r="G15" t="n">
-        <v>9.731591760945929e-09</v>
+        <v>8.714013196319613e-06</v>
       </c>
       <c r="H15" t="n">
         <v>234</v>
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582745266750616</v>
       </c>
       <c r="E16" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02975583076477051</v>
+        <v>0.006942272186279297</v>
       </c>
       <c r="G16" t="n">
-        <v>9.767798737831513e-09</v>
+        <v>9.931700473267765e-06</v>
       </c>
       <c r="H16" t="n">
         <v>234</v>
@@ -1095,16 +1095,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.58309838404979</v>
+        <v>4.582832763035696</v>
       </c>
       <c r="E17" t="n">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08596372604370117</v>
+        <v>0.02192330360412598</v>
       </c>
       <c r="G17" t="n">
-        <v>9.911422834119964e-09</v>
+        <v>8.983583486755438e-06</v>
       </c>
       <c r="H17" t="n">
         <v>234</v>
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E18" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006497859954833984</v>
+        <v>0.002898931503295898</v>
       </c>
       <c r="G18" t="n">
-        <v>9.891909232020583e-09</v>
+        <v>9.562627397402132e-06</v>
       </c>
       <c r="H18" t="n">
         <v>221</v>
@@ -1175,16 +1175,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.222716928327493</v>
+        <v>8.100858557168468</v>
       </c>
       <c r="E19" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004182338714599609</v>
+        <v>0.000606536865234375</v>
       </c>
       <c r="G19" t="n">
-        <v>8.780516355025547e-09</v>
+        <v>3.535808885333127e-06</v>
       </c>
       <c r="H19" t="n">
         <v>221</v>
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E20" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04008150100708008</v>
+        <v>0.01379966735839844</v>
       </c>
       <c r="G20" t="n">
-        <v>9.154514806617757e-09</v>
+        <v>8.811956829400765e-06</v>
       </c>
       <c r="H20" t="n">
         <v>221</v>
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E21" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04903745651245117</v>
+        <v>0.01154589653015137</v>
       </c>
       <c r="G21" t="n">
-        <v>9.202182716749807e-09</v>
+        <v>8.955351623927252e-06</v>
       </c>
       <c r="H21" t="n">
         <v>221</v>
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E22" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05561614036560059</v>
+        <v>0.01306295394897461</v>
       </c>
       <c r="G22" t="n">
-        <v>9.153463834462179e-09</v>
+        <v>8.811760041202229e-06</v>
       </c>
       <c r="H22" t="n">
         <v>221</v>
@@ -1335,16 +1335,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E23" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03690910339355469</v>
+        <v>0.01114082336425781</v>
       </c>
       <c r="G23" t="n">
-        <v>9.228114185216585e-09</v>
+        <v>8.955159556119281e-06</v>
       </c>
       <c r="H23" t="n">
         <v>221</v>
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E24" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03224062919616699</v>
+        <v>0.01196551322937012</v>
       </c>
       <c r="G24" t="n">
-        <v>9.153458865837424e-09</v>
+        <v>8.811760035369041e-06</v>
       </c>
       <c r="H24" t="n">
         <v>221</v>
@@ -1415,16 +1415,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8.222840240278831</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E25" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07422780990600586</v>
+        <v>0.02985978126525879</v>
       </c>
       <c r="G25" t="n">
-        <v>9.967975525061491e-09</v>
+        <v>9.64255142922758e-06</v>
       </c>
       <c r="H25" t="n">
         <v>221</v>
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16372151100421</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003743886947631836</v>
+        <v>0.001059293746948242</v>
       </c>
       <c r="G26" t="n">
-        <v>9.682438043555021e-09</v>
+        <v>7.196487828763011e-06</v>
       </c>
       <c r="H26" t="n">
         <v>292</v>
@@ -1495,16 +1495,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12.16388986806202</v>
+        <v>12.16343131868434</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002084255218505859</v>
+        <v>0.0005748271942138672</v>
       </c>
       <c r="G27" t="n">
-        <v>4.000711986203657e-09</v>
+        <v>4.214386778657131e-06</v>
       </c>
       <c r="H27" t="n">
         <v>292</v>
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16382632926615</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01818013191223145</v>
+        <v>0.003128290176391602</v>
       </c>
       <c r="G28" t="n">
-        <v>8.826295245883706e-09</v>
+        <v>4.310583053607444e-06</v>
       </c>
       <c r="H28" t="n">
         <v>292</v>
@@ -1575,16 +1575,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16382632926615</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01616239547729492</v>
+        <v>0.003195285797119141</v>
       </c>
       <c r="G29" t="n">
-        <v>8.985910951545445e-09</v>
+        <v>3.478758544004879e-06</v>
       </c>
       <c r="H29" t="n">
         <v>292</v>
@@ -1615,16 +1615,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16382632926615</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0149226188659668</v>
+        <v>0.004376888275146484</v>
       </c>
       <c r="G30" t="n">
-        <v>8.825227584807501e-09</v>
+        <v>4.310766729499888e-06</v>
       </c>
       <c r="H30" t="n">
         <v>292</v>
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16382632926615</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01441264152526855</v>
+        <v>0.003027677536010742</v>
       </c>
       <c r="G31" t="n">
-        <v>8.983225223864406e-09</v>
+        <v>3.478915720550282e-06</v>
       </c>
       <c r="H31" t="n">
         <v>292</v>
@@ -1695,16 +1695,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16382632926615</v>
       </c>
       <c r="E32" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01489591598510742</v>
+        <v>0.002701282501220703</v>
       </c>
       <c r="G32" t="n">
-        <v>8.825227584807542e-09</v>
+        <v>4.310766731252302e-06</v>
       </c>
       <c r="H32" t="n">
         <v>292</v>
@@ -1735,16 +1735,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12.16392093772296</v>
+        <v>12.16382632926615</v>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03589177131652832</v>
+        <v>0.006565093994140625</v>
       </c>
       <c r="G33" t="n">
-        <v>9.777997973364474e-09</v>
+        <v>5.589420508844231e-06</v>
       </c>
       <c r="H33" t="n">
         <v>292</v>
@@ -1775,16 +1775,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16.03740259932616</v>
+        <v>16.03687867071401</v>
       </c>
       <c r="E34" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00360560417175293</v>
+        <v>0.0009360313415527344</v>
       </c>
       <c r="G34" t="n">
-        <v>9.002764718460721e-09</v>
+        <v>8.820972422531026e-06</v>
       </c>
       <c r="H34" t="n">
         <v>256</v>
@@ -1815,16 +1815,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16.03735717784381</v>
+        <v>16.03654856138866</v>
       </c>
       <c r="E35" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002320289611816406</v>
+        <v>0.002078056335449219</v>
       </c>
       <c r="G35" t="n">
-        <v>7.725410305774301e-09</v>
+        <v>7.668430652203309e-06</v>
       </c>
       <c r="H35" t="n">
         <v>256</v>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16.0374024549452</v>
+        <v>16.03687867071401</v>
       </c>
       <c r="E36" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01440620422363281</v>
+        <v>0.003623247146606445</v>
       </c>
       <c r="G36" t="n">
-        <v>8.120263102119758e-09</v>
+        <v>3.419645838810592e-06</v>
       </c>
       <c r="H36" t="n">
         <v>256</v>
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16.0374024549452</v>
+        <v>16.03673720984952</v>
       </c>
       <c r="E37" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01455569267272949</v>
+        <v>0.003103494644165039</v>
       </c>
       <c r="G37" t="n">
-        <v>8.518164151716683e-09</v>
+        <v>6.180749359657108e-06</v>
       </c>
       <c r="H37" t="n">
         <v>256</v>
@@ -1935,16 +1935,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>16.0374024549452</v>
+        <v>16.03687867071401</v>
       </c>
       <c r="E38" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01336789131164551</v>
+        <v>0.002950906753540039</v>
       </c>
       <c r="G38" t="n">
-        <v>8.119741185091672e-09</v>
+        <v>3.422088777276069e-06</v>
       </c>
       <c r="H38" t="n">
         <v>256</v>
@@ -1975,16 +1975,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>16.0374024549452</v>
+        <v>16.03673720984952</v>
       </c>
       <c r="E39" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0150301456451416</v>
+        <v>0.002532005310058594</v>
       </c>
       <c r="G39" t="n">
-        <v>8.516469915121278e-09</v>
+        <v>6.186447538299049e-06</v>
       </c>
       <c r="H39" t="n">
         <v>256</v>
@@ -2015,16 +2015,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16.0374024549452</v>
+        <v>16.03687867071401</v>
       </c>
       <c r="E40" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01334476470947266</v>
+        <v>0.003092288970947266</v>
       </c>
       <c r="G40" t="n">
-        <v>8.119735868449617e-09</v>
+        <v>3.422088777940658e-06</v>
       </c>
       <c r="H40" t="n">
         <v>256</v>
@@ -2055,16 +2055,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>16.03740259932616</v>
+        <v>16.0369871195463</v>
       </c>
       <c r="E41" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03078246116638184</v>
+        <v>0.007674217224121094</v>
       </c>
       <c r="G41" t="n">
-        <v>9.443755911061522e-09</v>
+        <v>9.905095477595791e-06</v>
       </c>
       <c r="H41" t="n">
         <v>256</v>
@@ -2095,16 +2095,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.11456410700016</v>
+        <v>10.11425564616074</v>
       </c>
       <c r="E42" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004389286041259766</v>
+        <v>0.0023651123046875</v>
       </c>
       <c r="G42" t="n">
-        <v>8.033159479414584e-09</v>
+        <v>9.995277769725955e-06</v>
       </c>
       <c r="H42" t="n">
         <v>274</v>
@@ -2135,16 +2135,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10.11454962398163</v>
+        <v>10.08858570761426</v>
       </c>
       <c r="E43" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003022432327270508</v>
+        <v>0.0008602142333984375</v>
       </c>
       <c r="G43" t="n">
-        <v>7.525706669094774e-09</v>
+        <v>4.460125847233932e-06</v>
       </c>
       <c r="H43" t="n">
         <v>274</v>
@@ -2175,16 +2175,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10.11456378171945</v>
+        <v>10.11383909249545</v>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01441001892089844</v>
+        <v>0.00621342658996582</v>
       </c>
       <c r="G44" t="n">
-        <v>9.3685211905963e-09</v>
+        <v>8.512877118409017e-06</v>
       </c>
       <c r="H44" t="n">
         <v>274</v>
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10.11456391983822</v>
+        <v>10.11401958482651</v>
       </c>
       <c r="E45" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01357889175415039</v>
+        <v>0.006532669067382812</v>
       </c>
       <c r="G45" t="n">
-        <v>7.787199994406164e-09</v>
+        <v>8.471389300599157e-06</v>
       </c>
       <c r="H45" t="n">
         <v>274</v>
@@ -2255,16 +2255,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.11456378171945</v>
+        <v>10.11383909249545</v>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01377773284912109</v>
+        <v>0.005996227264404297</v>
       </c>
       <c r="G46" t="n">
-        <v>9.368077740823692e-09</v>
+        <v>8.503565848208113e-06</v>
       </c>
       <c r="H46" t="n">
         <v>274</v>
@@ -2295,16 +2295,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10.11456391983822</v>
+        <v>10.11401958482651</v>
       </c>
       <c r="E47" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01348328590393066</v>
+        <v>0.007708549499511719</v>
       </c>
       <c r="G47" t="n">
-        <v>7.778951301908842e-09</v>
+        <v>8.466771745690812e-06</v>
       </c>
       <c r="H47" t="n">
         <v>274</v>
@@ -2335,16 +2335,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10.11456378171945</v>
+        <v>10.11383909249545</v>
       </c>
       <c r="E48" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01396822929382324</v>
+        <v>0.006570577621459961</v>
       </c>
       <c r="G48" t="n">
-        <v>9.368084414523173e-09</v>
+        <v>8.503565847329941e-06</v>
       </c>
       <c r="H48" t="n">
         <v>274</v>
@@ -2375,16 +2375,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10.11456410700016</v>
+        <v>10.11433149177478</v>
       </c>
       <c r="E49" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03747057914733887</v>
+        <v>0.01627039909362793</v>
       </c>
       <c r="G49" t="n">
-        <v>8.866601012585008e-09</v>
+        <v>8.623844255917435e-06</v>
       </c>
       <c r="H49" t="n">
         <v>274</v>
@@ -2415,16 +2415,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14.45893720982281</v>
+        <v>14.45866874440652</v>
       </c>
       <c r="E50" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003049373626708984</v>
+        <v>0.001071453094482422</v>
       </c>
       <c r="G50" t="n">
-        <v>8.899958910283147e-09</v>
+        <v>8.379772341351702e-06</v>
       </c>
       <c r="H50" t="n">
         <v>268</v>
@@ -2455,16 +2455,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>14.45893477048766</v>
+        <v>14.44875601461287</v>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>0.002614498138427734</v>
+        <v>0.0005390644073486328</v>
       </c>
       <c r="G51" t="n">
-        <v>8.337305098359684e-09</v>
+        <v>9.27182696576581e-06</v>
       </c>
       <c r="H51" t="n">
         <v>268</v>
@@ -2495,16 +2495,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14.45893692310324</v>
+        <v>14.45854758405408</v>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01233601570129395</v>
+        <v>0.002992630004882812</v>
       </c>
       <c r="G52" t="n">
-        <v>9.373948980155496e-09</v>
+        <v>9.602380082401877e-06</v>
       </c>
       <c r="H52" t="n">
         <v>268</v>
@@ -2535,16 +2535,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14.45893692310324</v>
+        <v>14.45836626992301</v>
       </c>
       <c r="E53" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01250624656677246</v>
+        <v>0.002768754959106445</v>
       </c>
       <c r="G53" t="n">
-        <v>9.946311880310286e-09</v>
+        <v>7.197960146100569e-06</v>
       </c>
       <c r="H53" t="n">
         <v>268</v>
@@ -2575,16 +2575,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>14.45893692310324</v>
+        <v>14.45854758405408</v>
       </c>
       <c r="E54" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01154160499572754</v>
+        <v>0.003039121627807617</v>
       </c>
       <c r="G54" t="n">
-        <v>9.374098372181e-09</v>
+        <v>9.611146341725618e-06</v>
       </c>
       <c r="H54" t="n">
         <v>268</v>
@@ -2615,16 +2615,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14.45893692310324</v>
+        <v>14.45836626992301</v>
       </c>
       <c r="E55" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01109123229980469</v>
+        <v>0.002547502517700195</v>
       </c>
       <c r="G55" t="n">
-        <v>9.944694981876133e-09</v>
+        <v>7.215489647457751e-06</v>
       </c>
       <c r="H55" t="n">
         <v>268</v>
@@ -2655,16 +2655,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14.45893692310324</v>
+        <v>14.45854758405408</v>
       </c>
       <c r="E56" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01173067092895508</v>
+        <v>0.00271153450012207</v>
       </c>
       <c r="G56" t="n">
-        <v>9.374099477878544e-09</v>
+        <v>9.611146342217019e-06</v>
       </c>
       <c r="H56" t="n">
         <v>268</v>
@@ -2695,16 +2695,16 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14.45893720982281</v>
+        <v>14.45875031110251</v>
       </c>
       <c r="E57" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02960991859436035</v>
+        <v>0.00772547721862793</v>
       </c>
       <c r="G57" t="n">
-        <v>9.401765600391927e-09</v>
+        <v>8.966512838817733e-06</v>
       </c>
       <c r="H57" t="n">
         <v>268</v>
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10.43969208110307</v>
+        <v>10.4395169656216</v>
       </c>
       <c r="E58" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F58" t="n">
-        <v>0.003214359283447266</v>
+        <v>0.001249551773071289</v>
       </c>
       <c r="G58" t="n">
-        <v>7.279752772269161e-09</v>
+        <v>7.398855344435401e-06</v>
       </c>
       <c r="H58" t="n">
         <v>209</v>
@@ -2775,16 +2775,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10.43957056429091</v>
+        <v>10.42988107878364</v>
       </c>
       <c r="E59" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002047300338745117</v>
+        <v>0.0008492469787597656</v>
       </c>
       <c r="G59" t="n">
-        <v>9.442691220030885e-09</v>
+        <v>7.312162228563733e-06</v>
       </c>
       <c r="H59" t="n">
         <v>209</v>
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10.43969071776732</v>
+        <v>10.42554000859172</v>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01205587387084961</v>
+        <v>0.002917289733886719</v>
       </c>
       <c r="G60" t="n">
-        <v>7.609007868061759e-09</v>
+        <v>2.12244377339232e-06</v>
       </c>
       <c r="H60" t="n">
         <v>209</v>
@@ -2855,16 +2855,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10.43967259844342</v>
+        <v>10.43812135050301</v>
       </c>
       <c r="E61" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01288914680480957</v>
+        <v>0.005621671676635742</v>
       </c>
       <c r="G61" t="n">
-        <v>4.845329478922557e-09</v>
+        <v>6.038333549537354e-06</v>
       </c>
       <c r="H61" t="n">
         <v>209</v>
@@ -2895,16 +2895,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10.43969071776732</v>
+        <v>10.43812135050301</v>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0112769603729248</v>
+        <v>0.005475997924804688</v>
       </c>
       <c r="G62" t="n">
-        <v>7.60964169220959e-09</v>
+        <v>9.274974301335868e-06</v>
       </c>
       <c r="H62" t="n">
         <v>209</v>
@@ -2935,16 +2935,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10.43967259844342</v>
+        <v>10.43812135050301</v>
       </c>
       <c r="E63" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F63" t="n">
-        <v>0.008716821670532227</v>
+        <v>0.004103422164916992</v>
       </c>
       <c r="G63" t="n">
-        <v>4.826568793948327e-09</v>
+        <v>5.910498837207375e-06</v>
       </c>
       <c r="H63" t="n">
         <v>209</v>
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10.43969071776732</v>
+        <v>10.43812135050301</v>
       </c>
       <c r="E64" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01110243797302246</v>
+        <v>0.003973484039306641</v>
       </c>
       <c r="G64" t="n">
-        <v>7.60963675773971e-09</v>
+        <v>9.274974303888088e-06</v>
       </c>
       <c r="H64" t="n">
         <v>209</v>
@@ -3015,16 +3015,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10.43969208110307</v>
+        <v>10.4395169656216</v>
       </c>
       <c r="E65" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03082609176635742</v>
+        <v>0.0138542652130127</v>
       </c>
       <c r="G65" t="n">
-        <v>9.723390309967749e-09</v>
+        <v>9.949091721298033e-06</v>
       </c>
       <c r="H65" t="n">
         <v>209</v>
@@ -3055,16 +3055,16 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9.152220073434133</v>
+        <v>9.151774331566605</v>
       </c>
       <c r="E66" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F66" t="n">
-        <v>0.006698131561279297</v>
+        <v>0.002623081207275391</v>
       </c>
       <c r="G66" t="n">
-        <v>9.169496744654555e-09</v>
+        <v>9.565210892718181e-06</v>
       </c>
       <c r="H66" t="n">
         <v>292</v>
@@ -3095,16 +3095,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9.152113703244614</v>
+        <v>9.128452733023812</v>
       </c>
       <c r="E67" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004248857498168945</v>
+        <v>0.001365423202514648</v>
       </c>
       <c r="G67" t="n">
-        <v>8.452765587239044e-09</v>
+        <v>9.210995502696546e-06</v>
       </c>
       <c r="H67" t="n">
         <v>292</v>
@@ -3135,16 +3135,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9.152219989512881</v>
+        <v>9.151686792915081</v>
       </c>
       <c r="E68" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0265660285949707</v>
+        <v>0.01033401489257812</v>
       </c>
       <c r="G68" t="n">
-        <v>9.133643307729885e-09</v>
+        <v>9.467286616838818e-06</v>
       </c>
       <c r="H68" t="n">
         <v>292</v>
@@ -3175,16 +3175,16 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9.152219989512881</v>
+        <v>9.151686792915081</v>
       </c>
       <c r="E69" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02724838256835938</v>
+        <v>0.01183414459228516</v>
       </c>
       <c r="G69" t="n">
-        <v>9.266652988690034e-09</v>
+        <v>9.791997646044864e-06</v>
       </c>
       <c r="H69" t="n">
         <v>292</v>
@@ -3215,16 +3215,16 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9.152219989512881</v>
+        <v>9.151686792915081</v>
       </c>
       <c r="E70" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0248115062713623</v>
+        <v>0.0100243091583252</v>
       </c>
       <c r="G70" t="n">
-        <v>9.131418062786584e-09</v>
+        <v>9.466724412124771e-06</v>
       </c>
       <c r="H70" t="n">
         <v>292</v>
@@ -3255,16 +3255,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9.152219989512881</v>
+        <v>9.151686792915081</v>
       </c>
       <c r="E71" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02806639671325684</v>
+        <v>0.009115695953369141</v>
       </c>
       <c r="G71" t="n">
-        <v>9.280493177759631e-09</v>
+        <v>9.791467180877544e-06</v>
       </c>
       <c r="H71" t="n">
         <v>292</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9.152219989512881</v>
+        <v>9.151686792915081</v>
       </c>
       <c r="E72" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02512788772583008</v>
+        <v>0.01047444343566895</v>
       </c>
       <c r="G72" t="n">
-        <v>9.131424273675257e-09</v>
+        <v>9.46672440863094e-06</v>
       </c>
       <c r="H72" t="n">
         <v>292</v>
@@ -3335,16 +3335,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9.152220073434133</v>
+        <v>9.151774331566605</v>
       </c>
       <c r="E73" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06257724761962891</v>
+        <v>0.02667045593261719</v>
       </c>
       <c r="G73" t="n">
-        <v>9.384309352036734e-09</v>
+        <v>9.811678319275464e-06</v>
       </c>
       <c r="H73" t="n">
         <v>292</v>
@@ -3375,16 +3375,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523646707394455</v>
       </c>
       <c r="E74" t="n">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01136589050292969</v>
+        <v>0.002513408660888672</v>
       </c>
       <c r="G74" t="n">
-        <v>9.638230290558791e-09</v>
+        <v>9.387711993037229e-06</v>
       </c>
       <c r="H74" t="n">
         <v>245</v>
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8.524616706544398</v>
+        <v>8.521668505551355</v>
       </c>
       <c r="E75" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F75" t="n">
-        <v>0.006386995315551758</v>
+        <v>0.002214193344116211</v>
       </c>
       <c r="G75" t="n">
-        <v>8.530793656674309e-09</v>
+        <v>9.788901241376207e-06</v>
       </c>
       <c r="H75" t="n">
         <v>245</v>
@@ -3455,16 +3455,16 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523566689854036</v>
       </c>
       <c r="E76" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04815959930419922</v>
+        <v>0.01209044456481934</v>
       </c>
       <c r="G76" t="n">
-        <v>9.476734975577081e-09</v>
+        <v>9.720993197141204e-06</v>
       </c>
       <c r="H76" t="n">
         <v>245</v>
@@ -3495,16 +3495,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523566689854036</v>
       </c>
       <c r="E77" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04512476921081543</v>
+        <v>0.01294636726379395</v>
       </c>
       <c r="G77" t="n">
-        <v>9.494402208255141e-09</v>
+        <v>9.839276752892506e-06</v>
       </c>
       <c r="H77" t="n">
         <v>245</v>
@@ -3535,16 +3535,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523566689854036</v>
       </c>
       <c r="E78" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04349160194396973</v>
+        <v>0.01758074760437012</v>
       </c>
       <c r="G78" t="n">
-        <v>9.486084219182491e-09</v>
+        <v>9.720866236206356e-06</v>
       </c>
       <c r="H78" t="n">
         <v>245</v>
@@ -3575,16 +3575,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523566689854036</v>
       </c>
       <c r="E79" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03825211524963379</v>
+        <v>0.008935928344726562</v>
       </c>
       <c r="G79" t="n">
-        <v>9.574354733972858e-09</v>
+        <v>9.839157010768761e-06</v>
       </c>
       <c r="H79" t="n">
         <v>245</v>
@@ -3615,16 +3615,16 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523566689854036</v>
       </c>
       <c r="E80" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F80" t="n">
-        <v>0.04320311546325684</v>
+        <v>0.008981466293334961</v>
       </c>
       <c r="G80" t="n">
-        <v>9.486085261066834e-09</v>
+        <v>9.720866236623157e-06</v>
       </c>
       <c r="H80" t="n">
         <v>245</v>
@@ -3655,16 +3655,16 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8.524732755919574</v>
+        <v>8.523646707394455</v>
       </c>
       <c r="E81" t="n">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1113932132720947</v>
+        <v>0.02542567253112793</v>
       </c>
       <c r="G81" t="n">
-        <v>9.65913516601427e-09</v>
+        <v>9.441144201098433e-06</v>
       </c>
       <c r="H81" t="n">
         <v>245</v>
